--- a/다이어트/다이어트-테이블명세-양식.xlsx
+++ b/다이어트/다이어트-테이블명세-양식.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="120">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3444,12 +3444,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -4477,12 +4477,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -5538,12 +5538,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -5792,22 +5792,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C26"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="31" t="s">
         <v>112</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>26</v>
       </c>
@@ -5817,8 +5817,14 @@
       <c r="C2" s="12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>43</v>
       </c>
@@ -5828,8 +5834,14 @@
       <c r="C3" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>27</v>
       </c>
@@ -5839,8 +5851,14 @@
       <c r="C4" s="12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
         <v>28</v>
       </c>
@@ -5850,8 +5868,14 @@
       <c r="C5" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
         <v>29</v>
       </c>
@@ -5861,8 +5885,14 @@
       <c r="C6" s="12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
         <v>117</v>
       </c>
@@ -5872,8 +5902,14 @@
       <c r="C7" s="12" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E7" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
         <v>114</v>
       </c>
@@ -5883,8 +5919,14 @@
       <c r="C8" s="12" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E8" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
         <v>113</v>
       </c>
@@ -5894,8 +5936,14 @@
       <c r="C9" s="12" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E9" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
         <v>115</v>
       </c>
@@ -5905,8 +5953,14 @@
       <c r="C10" s="12" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
         <v>116</v>
       </c>
@@ -5916,8 +5970,14 @@
       <c r="C11" s="12" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
         <v>118</v>
       </c>
@@ -5927,8 +5987,14 @@
       <c r="C12" s="12" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E12" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="12" t="s">
         <v>119</v>
       </c>
@@ -5938,13 +6004,21 @@
       <c r="C13" s="12" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E13" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
         <v>78</v>
       </c>
@@ -5954,8 +6028,14 @@
       <c r="C15" s="12" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E15" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
         <v>79</v>
       </c>
@@ -5965,8 +6045,14 @@
       <c r="C16" s="12" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E16" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="12" t="s">
         <v>80</v>
       </c>
@@ -5976,8 +6062,14 @@
       <c r="C17" s="12" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E17" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="12" t="s">
         <v>81</v>
       </c>
@@ -5987,8 +6079,14 @@
       <c r="C18" s="12" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E18" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="s">
         <v>82</v>
       </c>
@@ -5998,13 +6096,21 @@
       <c r="C19" s="12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E19" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="12" t="s">
         <v>53</v>
       </c>
@@ -6014,8 +6120,14 @@
       <c r="C21" s="12" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E21" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="12" t="s">
         <v>96</v>
       </c>
@@ -6025,8 +6137,14 @@
       <c r="C23" s="12" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E23" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="12" t="s">
         <v>98</v>
       </c>
@@ -6036,8 +6154,14 @@
       <c r="C24" s="12" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E24" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="12" t="s">
         <v>26</v>
       </c>
@@ -6047,8 +6171,14 @@
       <c r="C25" s="12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="E25" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="12" t="s">
         <v>97</v>
       </c>
@@ -6057,6 +6187,12 @@
       </c>
       <c r="C26" s="12" t="s">
         <v>97</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
